--- a/outputs-HGR-r202-archive3/o__Verrucomicrobiales.xlsx
+++ b/outputs-HGR-r202-archive3/o__Verrucomicrobiales.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
@@ -470,18 +470,18 @@
       <c r="B2" t="n">
         <v>96932.76612532767</v>
       </c>
-      <c r="C2" t="n">
-        <v>96932.76612532767</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -493,18 +493,18 @@
       <c r="B3" t="n">
         <v>100535.8923864402</v>
       </c>
-      <c r="C3" t="n">
-        <v>100535.8923864402</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -516,18 +516,18 @@
       <c r="B4" t="n">
         <v>94620.59459608013</v>
       </c>
-      <c r="C4" t="n">
-        <v>94620.59459608013</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -539,18 +539,18 @@
       <c r="B5" t="n">
         <v>112327.7231656616</v>
       </c>
-      <c r="C5" t="n">
-        <v>112327.7231656616</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -562,18 +562,18 @@
       <c r="B6" t="n">
         <v>114520.4244945505</v>
       </c>
-      <c r="C6" t="n">
-        <v>114520.4244945505</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -585,18 +585,18 @@
       <c r="B7" t="n">
         <v>120493.1317812412</v>
       </c>
-      <c r="C7" t="n">
-        <v>120493.1317812412</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -608,18 +608,18 @@
       <c r="B8" t="n">
         <v>117742.8954276119</v>
       </c>
-      <c r="C8" t="n">
-        <v>117742.8954276119</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -631,18 +631,18 @@
       <c r="B9" t="n">
         <v>117474.9367237207</v>
       </c>
-      <c r="C9" t="n">
-        <v>117474.9367237207</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -654,18 +654,18 @@
       <c r="B10" t="n">
         <v>117670.4648797504</v>
       </c>
-      <c r="C10" t="n">
-        <v>117670.4648797504</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -677,18 +677,18 @@
       <c r="B11" t="n">
         <v>120065.8659317378</v>
       </c>
-      <c r="C11" t="n">
-        <v>120065.8659317378</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -700,18 +700,18 @@
       <c r="B12" t="n">
         <v>116637.0774113208</v>
       </c>
-      <c r="C12" t="n">
-        <v>116637.0774113208</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
